--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,19 +926,19 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,17 +1304,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,16 +1339,22 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1287,75 +1366,87 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2138,15 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -1982,20 +2155,20 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,16 +2255,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2093,25 +2278,31 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2125,11 +2316,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2143,22 +2334,28 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2187,35 +2384,41 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,20 +2484,26 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -2301,11 +2516,11 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,17 +2705,17 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2489,14 +2728,20 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2784,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +2878,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2661,45 +2922,51 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,10 +2992,10 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -2737,42 +3010,48 @@
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
@@ -2781,34 +3060,40 @@
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,28 +3324,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>900</v>
       </c>
       <c r="J66" s="3">
         <v>900</v>
@@ -3045,22 +3360,28 @@
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-87500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-84900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-84100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-83500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-82300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-81500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-80800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-80500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-80100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-80000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-79800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-79700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3809,49 @@
         <v>-2600</v>
       </c>
       <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3642,11 +4039,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3654,11 +4051,11 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,41 +4319,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-700</v>
       </c>
       <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4393,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3980,11 +4421,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4539,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,31 +4824,31 @@
         <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4366,10 +4857,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,35 +4909,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,7 +946,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -940,8 +954,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1151,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,37 +1217,37 @@
         <v>-1200</v>
       </c>
       <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,17 +1344,17 @@
         <v>-1200</v>
       </c>
       <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,11 +1394,11 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1372,72 +1412,75 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,49 +1594,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1595,58 +1647,64 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,16 +2226,17 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2161,17 +2248,17 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2261,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2284,14 +2377,17 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2301,11 +2397,11 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,7 +2448,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2358,7 +2457,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,19 +2595,22 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2522,8 +2630,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,35 +2807,38 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>2900</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2734,14 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,19 +3010,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
@@ -2901,16 +3032,16 @@
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2928,31 +3059,34 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
         <v>3500</v>
       </c>
       <c r="F58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2960,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2968,8 +3102,8 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2980,13 +3114,16 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -2998,7 +3135,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -3016,45 +3153,48 @@
         <v>700</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
@@ -3066,37 +3206,40 @@
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
       </c>
       <c r="F61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,31 +3485,34 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
@@ -3366,22 +3524,25 @@
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-90300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-87500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-80800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-80500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-80100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-80000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-900</v>
       </c>
       <c r="M76" s="3">
         <v>-900</v>
       </c>
       <c r="N76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4045,8 +4244,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4057,8 +4256,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,43 +4539,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,19 +4615,20 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4427,8 +4648,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,37 +5058,40 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4854,19 +5100,22 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,29 +5176,29 @@
         <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -759,14 +763,14 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -795,13 +799,16 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>200</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -848,13 +855,16 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,7 +963,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -957,8 +971,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,52 +1178,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>1200</v>
       </c>
       <c r="G17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1205,52 +1232,55 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
         <v>-1200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
       </c>
       <c r="G18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1296,14 +1330,14 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1332,28 +1366,31 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1200</v>
+      <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>-1200</v>
       </c>
       <c r="G21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
+        <v>-1200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1385,23 +1422,26 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1415,75 +1455,78 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,52 +1646,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1650,61 +1702,67 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1932,14 +2002,14 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,19 +2313,20 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2251,17 +2338,17 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2357,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2380,14 +2473,17 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2400,11 +2496,11 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2421,8 +2517,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2460,7 +2559,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,38 +2927,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2857,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>700</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
       </c>
       <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,22 +3141,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
@@ -3035,16 +3166,16 @@
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3062,34 +3193,37 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3500</v>
       </c>
       <c r="F58" s="3">
         <v>3500</v>
       </c>
       <c r="G58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3097,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3105,8 +3239,8 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3117,16 +3251,19 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3138,7 +3275,7 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
@@ -3156,48 +3293,51 @@
         <v>700</v>
       </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
@@ -3209,22 +3349,25 @@
         <v>900</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,17 +3375,17 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1500</v>
       </c>
       <c r="G61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,34 +3643,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
@@ -3527,22 +3685,25 @@
         <v>900</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-87500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-84100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-83500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-80800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-80500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-80100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-79700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-900</v>
       </c>
       <c r="N76" s="3">
         <v>-900</v>
       </c>
       <c r="O76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4247,8 +4446,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4756,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,11 +4848,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,8 +5016,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,40 +5304,43 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5103,19 +5349,22 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,41 +5416,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="E102" s="3">
         <v>200</v>
       </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -802,20 +809,26 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,19 +871,25 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +961,15 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -966,19 +993,19 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="I18" s="3">
+        <v>-1200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,37 +1378,39 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1369,29 +1436,35 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,29 +1498,35 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1458,87 +1537,99 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,37 +2118,43 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,25 +2485,27 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2341,20 +2514,20 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,20 +2605,26 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2453,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2476,14 +2661,20 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2499,14 +2690,14 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2520,11 +2711,11 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,25 +2744,25 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2594,47 +2791,53 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2915,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2744,11 +2959,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,44 +3163,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2980,14 +3219,20 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3287,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,46 +3401,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3196,57 +3457,63 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3254,22 +3521,28 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3278,10 +3551,10 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
@@ -3296,54 +3569,60 @@
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>8700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
@@ -3352,46 +3631,52 @@
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>1100</v>
       </c>
       <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H61" s="3">
         <v>1500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,40 +3955,46 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
@@ -3688,22 +4003,28 @@
         <v>900</v>
       </c>
       <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>900</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-92300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-93200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-91700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-90300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-89000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-87500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-84900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-84100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-83500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-82300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-81500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-80800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-80500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-80100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-80000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-79800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-79700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2900</v>
       </c>
       <c r="H76" s="3">
         <v>-2600</v>
       </c>
       <c r="I76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,11 +4846,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4461,11 +4858,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,53 +5186,59 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>1900</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4851,23 +5292,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4875,11 +5316,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5458,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -5019,11 +5478,11 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,52 +5792,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>900</v>
       </c>
       <c r="H100" s="3">
         <v>1000</v>
       </c>
       <c r="I100" s="3">
+        <v>900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -5361,10 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,47 +5916,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -785,8 +789,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,12 +833,12 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,11 +898,11 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -999,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1007,8 +1021,8 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,61 +1258,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,22 +1333,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1200</v>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="J18" s="3">
+        <v>-1200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1326,29 +1356,29 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,22 +1423,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1412,8 +1446,8 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,22 +1488,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1200</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>-1200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,23 +1553,23 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1543,84 +1583,87 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,61 +1801,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1814,70 +1866,76 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,22 +2203,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -2156,8 +2226,8 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,28 +2573,29 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2520,17 +2607,17 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,11 +2716,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2644,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2667,14 +2760,17 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2696,11 +2792,11 @@
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2717,8 +2813,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,19 +2843,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2765,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2797,50 +2896,53 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +3038,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,47 +3286,50 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3225,14 +3345,17 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,50 +3416,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4600</v>
       </c>
       <c r="F54" s="3">
         <v>4600</v>
       </c>
       <c r="G54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>700</v>
       </c>
       <c r="M54" s="3">
         <v>700</v>
       </c>
       <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,19 +3546,19 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -3436,16 +3567,16 @@
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3463,43 +3594,46 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3500</v>
       </c>
       <c r="I58" s="3">
         <v>3500</v>
       </c>
       <c r="J58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3507,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3515,8 +3649,8 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,16 +3673,16 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3557,7 +3694,7 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
@@ -3575,57 +3712,60 @@
         <v>700</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
@@ -3637,30 +3777,33 @@
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1100</v>
@@ -3669,17 +3812,17 @@
         <v>1100</v>
       </c>
       <c r="H61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="I61" s="3">
         <v>1500</v>
       </c>
       <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,43 +4116,46 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>900</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
@@ -4009,22 +4167,25 @@
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-93400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-92300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-87500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-84900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-84100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-83500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-82300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-81500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-80800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-80500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-80100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-79800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-79700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-900</v>
       </c>
       <c r="Q76" s="3">
         <v>-900</v>
       </c>
       <c r="R76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4852,8 +5051,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4864,8 +5063,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,55 +5406,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,17 +5498,18 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5298,11 +5519,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5322,8 +5543,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,17 +5691,20 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5484,8 +5714,8 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,49 +6041,52 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5849,19 +6095,22 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,50 +6171,53 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
-      </c>
-      <c r="G102" s="3">
-        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>200</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -792,8 +796,8 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,12 +843,12 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,11 +911,11 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,10 +1000,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1016,7 +1030,7 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1024,8 +1038,8 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,64 +1285,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1200</v>
       </c>
       <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,25 +1363,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1200</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
+      <c r="K18" s="3">
+        <v>-1200</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
@@ -1359,29 +1389,29 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,22 +1460,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1449,8 +1483,8 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,25 +1525,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1200</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>-1200</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,23 +1596,23 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1586,87 +1626,90 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1853,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -1869,73 +1921,79 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -2229,8 +2299,8 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,31 +2660,32 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2610,17 +2697,17 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2719,11 +2812,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2740,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2763,43 +2856,46 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2816,8 +2912,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,19 +2945,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2867,7 +2966,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2899,53 +2998,56 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,20 +3080,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3029,20 +3134,23 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -3076,8 +3184,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,50 +3406,53 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3348,14 +3468,17 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4600</v>
       </c>
       <c r="G54" s="3">
         <v>4600</v>
       </c>
       <c r="H54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3549,19 +3680,19 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
@@ -3570,16 +3701,16 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3597,10 +3728,13 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,35 +3742,35 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3500</v>
       </c>
       <c r="J58" s="3">
         <v>3500</v>
       </c>
       <c r="K58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3644,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3652,8 +3786,8 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,16 +3813,16 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -3697,7 +3834,7 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
@@ -3715,60 +3852,63 @@
         <v>700</v>
       </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>900</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
@@ -3780,22 +3920,25 @@
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,10 +3946,10 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
@@ -3815,17 +3958,17 @@
         <v>1100</v>
       </c>
       <c r="I61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="J61" s="3">
         <v>1500</v>
       </c>
       <c r="K61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3859,31 +4002,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,46 +4274,49 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
         <v>2600</v>
       </c>
       <c r="F66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
@@ -4170,22 +4328,25 @@
         <v>900</v>
       </c>
       <c r="S66" s="3">
+        <v>900</v>
+      </c>
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-94600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-93400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-93200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-87500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-84900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-82300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-81500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-80800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-80500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-80000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-79800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-79700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-900</v>
       </c>
       <c r="R76" s="3">
         <v>-900</v>
       </c>
       <c r="S76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5054,8 +5253,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,58 +5623,61 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5522,11 +5743,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,19 +5921,22 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5717,8 +5947,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,52 +6287,55 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500</v>
+        <v>3000</v>
       </c>
       <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6098,19 +6344,22 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,53 +6423,56 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1300</v>
+        <v>2000</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>200</v>
       </c>
       <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -799,8 +802,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,12 +852,12 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,11 +923,11 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,10 +1016,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1033,7 +1046,7 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1041,8 +1054,8 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,20 +1143,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,67 +1311,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,28 +1392,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
+      <c r="L18" s="3">
+        <v>-1200</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1392,29 +1421,29 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1463,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1486,8 +1519,8 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,28 +1561,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1200</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>-1200</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,23 +1638,23 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1629,90 +1668,93 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,67 +1904,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
@@ -1924,76 +1975,82 @@
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2279,22 +2348,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -2302,8 +2371,8 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,34 +2746,35 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2700,17 +2786,17 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2815,11 +2907,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2836,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2859,14 +2951,17 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2891,14 +2986,14 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2915,8 +3010,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2933,13 +3028,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2948,19 +3046,19 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2969,7 +3067,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3001,56 +3099,59 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3080,8 +3184,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -3095,8 +3199,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,14 +3253,14 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -3187,8 +3294,8 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,53 +3525,56 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3471,14 +3590,17 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4600</v>
       </c>
       <c r="H54" s="3">
         <v>4600</v>
       </c>
       <c r="I54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>700</v>
       </c>
       <c r="O54" s="3">
         <v>700</v>
       </c>
       <c r="P54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3683,19 +3813,19 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -3704,16 +3834,16 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3731,49 +3861,52 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
       </c>
       <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3500</v>
       </c>
       <c r="K58" s="3">
         <v>3500</v>
       </c>
       <c r="L58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3781,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3789,8 +3922,8 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>100</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3816,16 +3952,16 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -3837,7 +3973,7 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
@@ -3855,22 +3991,25 @@
         <v>700</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
         <v>400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,40 +4017,40 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
@@ -3923,36 +4062,39 @@
         <v>900</v>
       </c>
       <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>300</v>
       </c>
       <c r="X60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1100</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
@@ -3961,17 +4103,17 @@
         <v>1100</v>
       </c>
       <c r="J61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1500</v>
       </c>
       <c r="L61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,11 +4159,11 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4031,8 +4176,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,49 +4431,52 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2600</v>
       </c>
       <c r="F66" s="3">
         <v>2600</v>
       </c>
       <c r="G66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
@@ -4331,22 +4488,25 @@
         <v>900</v>
       </c>
       <c r="T66" s="3">
+        <v>900</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-96000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-94600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-93200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-90300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-87500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-84100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-82300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-80800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-80100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-80000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-79800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-79700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-900</v>
       </c>
       <c r="S76" s="3">
         <v>-900</v>
       </c>
       <c r="T76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5256,8 +5454,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -5268,8 +5466,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,52 +5851,52 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +5939,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5746,11 +5966,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -5938,8 +6167,8 @@
       <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>-100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5950,8 +6179,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,55 +6532,58 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6347,19 +6592,22 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,56 +6674,59 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
       </c>
       <c r="J102" s="3">
         <v>200</v>
       </c>
       <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -785,31 +793,31 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -835,13 +843,19 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -855,15 +869,15 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,13 +920,19 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -926,14 +946,14 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,13 +1047,13 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1049,19 +1077,19 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,26 +1180,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,11 +1215,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
         <v>-1500</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
+      <c r="N18" s="3">
+        <v>-1200</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,52 +1547,54 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1552,44 +1620,50 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1641,26 +1721,26 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1671,102 +1751,114 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,52 +2467,58 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,40 +2919,42 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2789,20 +2963,20 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,13 +3069,19 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2910,14 +3096,14 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2931,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2954,14 +3140,20 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2989,8 +3181,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2998,8 +3190,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -3013,11 +3205,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3031,49 +3223,55 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3102,62 +3300,68 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3187,11 +3397,11 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -3202,11 +3412,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3244,29 +3454,35 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -3297,11 +3513,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,59 +3762,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3593,14 +3833,20 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3916,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3810,46 +4072,46 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3864,72 +4126,78 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
@@ -3937,13 +4205,19 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3955,19 +4229,19 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3976,10 +4250,10 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
@@ -3994,69 +4268,75 @@
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
+        <v>700</v>
+      </c>
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>900</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
@@ -4065,22 +4345,28 @@
         <v>900</v>
       </c>
       <c r="U60" s="3">
+        <v>900</v>
+      </c>
+      <c r="V60" s="3">
+        <v>900</v>
+      </c>
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,38 +4374,38 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1100</v>
       </c>
       <c r="J61" s="3">
         <v>1100</v>
       </c>
       <c r="K61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,14 +4454,14 @@
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4179,11 +4471,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,46 +4759,46 @@
         <v>1900</v>
       </c>
       <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>900</v>
       </c>
       <c r="S66" s="3">
         <v>900</v>
@@ -4491,22 +4807,28 @@
         <v>900</v>
       </c>
       <c r="U66" s="3">
+        <v>900</v>
+      </c>
+      <c r="V66" s="3">
+        <v>900</v>
+      </c>
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-97700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-96000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-94600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-93400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-92300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-93200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-91700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-90300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-89000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-87500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-84900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-84100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-82300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-81500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-80800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-80500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-80100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-80000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-79800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-79700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2900</v>
       </c>
       <c r="M76" s="3">
         <v>-2600</v>
       </c>
       <c r="N76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5457,11 +5855,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5469,11 +5867,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,68 +6270,74 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-800</v>
       </c>
       <c r="L89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-600</v>
       </c>
       <c r="P89" s="3">
         <v>-700</v>
       </c>
       <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,19 +6391,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5969,23 +6411,23 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5993,11 +6435,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,19 +6622,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -6182,11 +6642,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,67 +7021,73 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>900</v>
       </c>
       <c r="M100" s="3">
         <v>1000</v>
       </c>
       <c r="N100" s="3">
+        <v>900</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -6604,10 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,62 +7175,68 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -799,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -819,8 +823,8 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -849,16 +853,19 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -875,12 +882,12 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,17 +933,20 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,11 +962,11 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1053,10 +1067,10 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1083,7 +1097,7 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1091,8 +1105,8 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,18 +1217,18 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,76 +1392,77 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1800</v>
       </c>
       <c r="F17" s="3">
         <v>1800</v>
       </c>
       <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
       </c>
       <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
@@ -1443,46 +1470,49 @@
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1200</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
+      <c r="O18" s="3">
+        <v>-1200</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
@@ -1490,29 +1520,29 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,23 +1582,24 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1573,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1596,8 +1630,8 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1626,46 +1660,49 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1200</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>-1200</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1727,23 +1767,23 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1757,99 +1797,102 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,76 +2060,79 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
@@ -2088,85 +2140,91 @@
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,23 +2540,26 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2497,22 +2567,22 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -2520,8 +2590,8 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,43 +3007,44 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2969,17 +3056,17 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,7 +3177,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3102,11 +3195,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3123,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -3146,14 +3239,17 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3187,14 +3283,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -3211,8 +3307,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3229,22 +3325,25 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3253,19 +3352,19 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3274,7 +3373,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3306,65 +3405,68 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3403,8 +3508,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3418,8 +3523,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,20 +3580,20 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
       </c>
       <c r="H48" s="3">
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -3519,8 +3627,8 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,53 +3897,53 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3839,14 +3959,17 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,65 +4045,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4600</v>
       </c>
       <c r="K54" s="3">
         <v>4600</v>
       </c>
       <c r="L54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>700</v>
       </c>
       <c r="R54" s="3">
         <v>700</v>
       </c>
       <c r="S54" s="3">
+        <v>700</v>
+      </c>
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,25 +4187,26 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4084,19 +4215,19 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
@@ -4105,16 +4236,16 @@
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4132,58 +4263,61 @@
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
       </c>
       <c r="I58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3500</v>
       </c>
       <c r="N58" s="3">
         <v>3500</v>
       </c>
       <c r="O58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -4191,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
@@ -4199,8 +4333,8 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
+      <c r="X58" s="3">
+        <v>100</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
@@ -4211,16 +4345,19 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -4235,16 +4372,16 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -4256,7 +4393,7 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
@@ -4274,72 +4411,75 @@
         <v>700</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
       </c>
       <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
         <v>400</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>300</v>
       </c>
       <c r="AA59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1500</v>
       </c>
       <c r="F60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>900</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
@@ -4351,22 +4491,25 @@
         <v>900</v>
       </c>
       <c r="W60" s="3">
+        <v>900</v>
+      </c>
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>300</v>
       </c>
       <c r="AA60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,16 +4523,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
+        <v>500</v>
+      </c>
+      <c r="J61" s="3">
         <v>1000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
@@ -4398,17 +4541,17 @@
         <v>1100</v>
       </c>
       <c r="M61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N61" s="3">
         <v>1500</v>
       </c>
       <c r="O61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4442,13 +4585,16 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -4460,11 +4606,11 @@
         <v>500</v>
       </c>
       <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4477,8 +4623,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,58 +4905,61 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2600</v>
       </c>
       <c r="I66" s="3">
         <v>2600</v>
       </c>
       <c r="J66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>900</v>
       </c>
       <c r="T66" s="3">
         <v>900</v>
@@ -4813,22 +4971,25 @@
         <v>900</v>
       </c>
       <c r="W66" s="3">
+        <v>900</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>300</v>
       </c>
       <c r="AA66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-101000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-97700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-96000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-94600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-93400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-92300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-93200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-90300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-87500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-84900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-84100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-82300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-81500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-80800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-80500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-80100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-80000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-79800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-79700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-900</v>
       </c>
       <c r="V76" s="3">
         <v>-900</v>
       </c>
       <c r="W76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5861,8 +6060,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,70 +6490,73 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-900</v>
       </c>
       <c r="G89" s="3">
         <v>-900</v>
       </c>
       <c r="H89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6397,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6417,11 +6638,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6628,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -6636,8 +6866,8 @@
       <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -6648,8 +6878,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,64 +7270,67 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -7093,19 +7339,22 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,65 +7430,68 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
         <v>-1100</v>
       </c>
       <c r="F102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>200</v>
       </c>
       <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -806,31 +813,31 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,13 +878,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -885,15 +898,15 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,23 +949,29 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,14 +984,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1082,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1070,13 +1097,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1100,19 +1127,19 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,21 +1259,21 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1244,11 +1283,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
+      <c r="Q18" s="3">
+        <v>-1200</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1594,50 +1661,50 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1663,53 +1730,59 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-900</v>
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>-900</v>
       </c>
       <c r="G21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1770,26 +1849,26 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1800,111 +1879,123 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2554,50 +2693,50 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,49 +3179,51 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -3059,20 +3232,20 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,23 +3347,29 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -3198,14 +3383,14 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3219,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -3242,14 +3427,20 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3286,8 +3477,8 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3295,8 +3486,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -3310,11 +3501,11 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3328,58 +3519,64 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3408,71 +3605,77 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3511,11 +3720,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -3526,11 +3735,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3568,38 +3777,44 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -3630,11 +3845,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,68 +4121,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3962,14 +4201,20 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,71 +4293,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,10 +4461,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4212,46 +4473,46 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4266,81 +4527,87 @@
         <v>100</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
@@ -4348,22 +4615,28 @@
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -4375,19 +4648,19 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -4396,10 +4669,10 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
@@ -4414,78 +4687,84 @@
         <v>700</v>
       </c>
       <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>900</v>
       </c>
       <c r="V60" s="3">
         <v>900</v>
@@ -4494,22 +4773,28 @@
         <v>900</v>
       </c>
       <c r="X60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,38 +4811,38 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>1100</v>
       </c>
       <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,10 +4888,10 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -4609,14 +4900,14 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4626,11 +4917,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,64 +5217,70 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2000</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>900</v>
       </c>
       <c r="V66" s="3">
         <v>900</v>
@@ -4974,22 +5289,28 @@
         <v>900</v>
       </c>
       <c r="X66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-102000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-101000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-99500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-97700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-96000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-94600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-93400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-92300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-93200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-91700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-90300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-89000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-87500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-84900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-84100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-83500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-82300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-81500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-80800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-80500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-80100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-80000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-79800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-79700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2900</v>
       </c>
       <c r="P76" s="3">
         <v>-2600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6063,11 +6460,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -6075,11 +6472,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,77 +6920,83 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-800</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-600</v>
       </c>
       <c r="S89" s="3">
         <v>-700</v>
       </c>
       <c r="T89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6621,19 +7062,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -6641,23 +7082,23 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6665,11 +7106,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6861,19 +7320,19 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -6881,11 +7340,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,76 +7758,82 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>5700</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>900</v>
       </c>
       <c r="P100" s="3">
         <v>1000</v>
       </c>
       <c r="Q100" s="3">
+        <v>900</v>
+      </c>
+      <c r="R100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
@@ -7351,10 +7842,16 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,71 +7930,77 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -819,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -839,8 +843,8 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -869,25 +873,28 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -904,12 +911,12 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,17 +974,17 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,11 +1000,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,10 +1096,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1103,10 +1117,10 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1133,7 +1147,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1141,8 +1155,8 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>4</v>
+      <c r="Y12" s="3">
+        <v>0</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,18 +1285,18 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1289,8 +1309,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,76 +1482,76 @@
         <v>2400</v>
       </c>
       <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1800</v>
       </c>
       <c r="I17" s="3">
         <v>1800</v>
       </c>
       <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
@@ -1532,55 +1559,58 @@
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1200</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
+      <c r="R18" s="3">
+        <v>-1200</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
@@ -1588,29 +1618,29 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1667,15 +1701,15 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1683,22 +1717,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1706,8 +1740,8 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1736,55 +1770,58 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1200</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>-1200</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1855,23 +1895,23 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1885,108 +1925,111 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
       <c r="AB23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,85 +2215,88 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
       </c>
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
       <c r="Z26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
       <c r="AB26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
@@ -2252,94 +2304,100 @@
       <c r="AD26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
       </c>
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
       <c r="Z27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
       <c r="AB27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
       <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2699,15 +2769,15 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2715,22 +2785,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2738,8 +2808,8 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
       </c>
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
       <c r="Z33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
       <c r="AB33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
       <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
       </c>
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
       <c r="Z35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
       <c r="AB35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
       <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,52 +3267,53 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -3238,17 +3325,17 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,25 +3443,28 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3389,11 +3482,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -3410,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -3433,14 +3526,17 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3483,14 +3579,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -3507,8 +3603,8 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3525,31 +3621,34 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3558,19 +3657,19 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3579,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3611,74 +3710,77 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3726,8 +3831,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -3741,8 +3846,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3783,19 +3888,22 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -3804,20 +3912,20 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
       </c>
       <c r="K48" s="3">
+        <v>800</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -3851,8 +3959,8 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,16 +4244,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -4145,53 +4265,53 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4207,14 +4327,17 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC52" s="3">
-        <v>0</v>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,74 +4422,77 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4600</v>
       </c>
       <c r="N54" s="3">
         <v>4600</v>
       </c>
       <c r="O54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>700</v>
       </c>
       <c r="U54" s="3">
         <v>700</v>
       </c>
       <c r="V54" s="3">
+        <v>700</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,34 +4579,35 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -4485,19 +4616,19 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>600</v>
@@ -4506,16 +4637,16 @@
         <v>600</v>
       </c>
       <c r="U57" s="3">
+        <v>600</v>
+      </c>
+      <c r="V57" s="3">
         <v>700</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4533,67 +4664,70 @@
         <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
       </c>
       <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3500</v>
       </c>
       <c r="Q58" s="3">
         <v>3500</v>
       </c>
       <c r="R58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -4601,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
@@ -4609,8 +4743,8 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
+      <c r="AA58" s="3">
+        <v>100</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
@@ -4621,25 +4755,28 @@
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -4654,16 +4791,16 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -4675,7 +4812,7 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
@@ -4693,81 +4830,84 @@
         <v>700</v>
       </c>
       <c r="Z59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AA59" s="3">
         <v>500</v>
       </c>
       <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
         <v>400</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>300</v>
       </c>
       <c r="AD59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1500</v>
       </c>
       <c r="H60" s="3">
         <v>1500</v>
       </c>
       <c r="I60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J60" s="3">
         <v>1400</v>
       </c>
       <c r="K60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>900</v>
       </c>
       <c r="W60" s="3">
         <v>900</v>
@@ -4779,22 +4919,25 @@
         <v>900</v>
       </c>
       <c r="Z60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>400</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>300</v>
       </c>
       <c r="AD60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4817,16 +4960,16 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1100</v>
       </c>
       <c r="N61" s="3">
         <v>1100</v>
@@ -4835,17 +4978,17 @@
         <v>1100</v>
       </c>
       <c r="P61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q61" s="3">
         <v>1500</v>
       </c>
       <c r="R61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4879,13 +5022,16 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -4894,7 +5040,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -4906,11 +5052,11 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4923,8 +5069,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,58 +5390,58 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2600</v>
       </c>
       <c r="L66" s="3">
         <v>2600</v>
       </c>
       <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>900</v>
       </c>
       <c r="W66" s="3">
         <v>900</v>
@@ -5295,22 +5453,25 @@
         <v>900</v>
       </c>
       <c r="Z66" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>400</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>300</v>
       </c>
       <c r="AD66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-103500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-102000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-101000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-97700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-96000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-94600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-93400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-92300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-93200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-90300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-87500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-84900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-84100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-83500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-82300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-81500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-80800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-80500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-80100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-80000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-79800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-79700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5600</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>100</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-900</v>
       </c>
       <c r="Y76" s="3">
         <v>-900</v>
       </c>
       <c r="Z76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
       </c>
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
       <c r="Z81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
       <c r="AB81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
       <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6466,8 +6665,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -6478,8 +6677,8 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,79 +7140,82 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-1200</v>
       </c>
       <c r="F89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
       </c>
       <c r="K89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7068,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -7076,8 +7297,8 @@
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -7088,11 +7309,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7112,8 +7333,8 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7317,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -7326,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -7334,8 +7564,8 @@
       <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>-100</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -7346,8 +7576,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,73 +8007,76 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
-      </c>
-      <c r="X100" s="3">
-        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
@@ -7839,19 +8085,22 @@
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,74 +8185,77 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1100</v>
       </c>
       <c r="H102" s="3">
         <v>-1100</v>
       </c>
       <c r="I102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>200</v>
       </c>
       <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>AERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,157 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -826,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
@@ -846,8 +850,8 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,19 +892,19 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -914,12 +921,12 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,29 +972,32 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,11 +1013,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1099,10 +1113,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1120,10 +1134,10 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1150,7 +1164,7 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1158,8 +1172,8 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>4</v>
+      <c r="Z12" s="3">
+        <v>0</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>4</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,18 +1308,18 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1312,8 +1332,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,88 +1499,89 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
         <v>2400</v>
       </c>
       <c r="F17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1800</v>
       </c>
       <c r="J17" s="3">
         <v>1800</v>
       </c>
       <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,49 +1601,49 @@
         <v>-1800</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1200</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
+      <c r="S18" s="3">
+        <v>-1200</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
@@ -1621,29 +1651,29 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
       <c r="AC18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD18" s="3">
         <v>-100</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1704,15 +1738,15 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1720,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1777,8 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,49 +1819,49 @@
         <v>-1800</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1200</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="S21" s="3">
+        <v>-1200</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1898,23 +1938,23 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1928,31 +1968,34 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,79 +2003,79 @@
         <v>-1800</v>
       </c>
       <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
       <c r="AA23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB23" s="3">
         <v>-200</v>
       </c>
       <c r="AC23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD23" s="3">
         <v>-100</v>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,79 +2279,79 @@
         <v>-1800</v>
       </c>
       <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-300</v>
       </c>
       <c r="Z26" s="3">
         <v>-300</v>
       </c>
       <c r="AA26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB26" s="3">
         <v>-200</v>
       </c>
       <c r="AC26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD26" s="3">
         <v>-100</v>
@@ -2307,8 +2359,11 @@
       <c r="AE26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,88 +2371,91 @@
         <v>-1800</v>
       </c>
       <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-300</v>
       </c>
       <c r="Z27" s="3">
         <v>-300</v>
       </c>
       <c r="AA27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB27" s="3">
         <v>-200</v>
       </c>
       <c r="AC27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD27" s="3">
         <v>-100</v>
       </c>
       <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2772,15 +2842,15 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2788,22 +2858,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2811,8 +2881,8 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2850,88 +2923,91 @@
         <v>-1800</v>
       </c>
       <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-300</v>
       </c>
       <c r="Z33" s="3">
         <v>-300</v>
       </c>
       <c r="AA33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB33" s="3">
         <v>-200</v>
       </c>
       <c r="AC33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD33" s="3">
         <v>-100</v>
       </c>
       <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3028,182 +3107,188 @@
         <v>-1800</v>
       </c>
       <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-300</v>
       </c>
       <c r="Z35" s="3">
         <v>-300</v>
       </c>
       <c r="AA35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB35" s="3">
         <v>-200</v>
       </c>
       <c r="AC35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD35" s="3">
         <v>-100</v>
       </c>
       <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,55 +3354,56 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -3328,17 +3415,17 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,28 +3536,31 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3485,11 +3578,11 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -3506,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3529,14 +3622,17 @@
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD43" s="3">
-        <v>0</v>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3582,14 +3678,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3606,8 +3702,8 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3633,25 +3732,25 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3660,19 +3759,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3681,7 +3780,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3713,77 +3812,80 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3834,8 +3939,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -3849,8 +3954,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3891,22 +3996,25 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3915,20 +4023,20 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
       </c>
       <c r="L48" s="3">
+        <v>800</v>
+      </c>
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -3962,8 +4070,8 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4258,8 +4378,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4268,53 +4388,53 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4330,14 +4450,17 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD52" s="3">
-        <v>0</v>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,77 +4548,80 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4600</v>
       </c>
       <c r="O54" s="3">
         <v>4600</v>
       </c>
       <c r="P54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>700</v>
       </c>
       <c r="V54" s="3">
         <v>700</v>
       </c>
       <c r="W54" s="3">
+        <v>700</v>
+      </c>
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,37 +4710,38 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -4619,19 +4750,19 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>600</v>
@@ -4640,16 +4771,16 @@
         <v>600</v>
       </c>
       <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4667,70 +4798,73 @@
         <v>100</v>
       </c>
       <c r="AE57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3500</v>
       </c>
       <c r="R58" s="3">
         <v>3500</v>
       </c>
       <c r="S58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -4738,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>100</v>
@@ -4746,8 +4880,8 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
+      <c r="AB58" s="3">
+        <v>100</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
@@ -4758,28 +4892,31 @@
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -4794,16 +4931,16 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -4815,7 +4952,7 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
@@ -4833,84 +4970,87 @@
         <v>700</v>
       </c>
       <c r="AA59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AB59" s="3">
         <v>500</v>
       </c>
       <c r="AC59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD59" s="3">
         <v>400</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>300</v>
       </c>
       <c r="AE59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1500</v>
       </c>
       <c r="I60" s="3">
         <v>1500</v>
       </c>
       <c r="J60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K60" s="3">
         <v>1400</v>
       </c>
       <c r="L60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>900</v>
       </c>
       <c r="X60" s="3">
         <v>900</v>
@@ -4922,22 +5062,25 @@
         <v>900</v>
       </c>
       <c r="AA60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>400</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>300</v>
       </c>
       <c r="AE60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4963,16 +5106,16 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1100</v>
       </c>
       <c r="O61" s="3">
         <v>1100</v>
@@ -4981,17 +5124,17 @@
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="R61" s="3">
         <v>1500</v>
       </c>
       <c r="S61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -5025,16 +5168,19 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -5043,7 +5189,7 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -5055,11 +5201,11 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5072,8 +5218,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,70 +5536,73 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2600</v>
       </c>
       <c r="M66" s="3">
         <v>2600</v>
       </c>
       <c r="N66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>900</v>
       </c>
       <c r="X66" s="3">
         <v>900</v>
@@ -5456,22 +5614,25 @@
         <v>900</v>
       </c>
       <c r="AA66" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>400</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>300</v>
       </c>
       <c r="AE66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-103500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-102000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-101000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-99500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-96000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-94600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-93400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-92300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-93200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-90300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-87500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-84900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-84100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-83500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-82300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-81500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-80800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-80500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-80100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-80000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-79800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-79700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-79600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5600</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>100</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-900</v>
       </c>
       <c r="Z76" s="3">
         <v>-900</v>
       </c>
       <c r="AA76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6496,88 +6691,91 @@
         <v>-1800</v>
       </c>
       <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-300</v>
       </c>
       <c r="Z81" s="3">
         <v>-300</v>
       </c>
       <c r="AA81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB81" s="3">
         <v>-200</v>
       </c>
       <c r="AC81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD81" s="3">
         <v>-100</v>
       </c>
       <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6668,8 +6867,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -6680,8 +6879,8 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,82 +7357,85 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1200</v>
       </c>
       <c r="F89" s="3">
         <v>-1200</v>
       </c>
       <c r="G89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-900</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
       </c>
       <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,13 +7485,14 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -7292,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -7300,8 +7521,8 @@
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>-100</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -7312,11 +7533,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -7324,8 +7545,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -7336,8 +7557,8 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,13 +7759,16 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7547,11 +7777,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -7559,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -7567,8 +7797,8 @@
       <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>-100</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -7579,8 +7809,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,67 +8265,67 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
@@ -8088,19 +8334,22 @@
         <v>100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,77 +8437,80 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1100</v>
       </c>
       <c r="I102" s="3">
         <v>-1100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
-      </c>
-      <c r="P102" s="3">
-        <v>200</v>
       </c>
       <c r="Q102" s="3">
         <v>200</v>
       </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
